--- a/ocms/src/test/resources/DownloadedFiles/Template Screen (1).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Template Screen (1).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t xml:space="preserve">Template Name</t>
   </si>
@@ -25,25 +25,22 @@
     <t xml:space="preserve">Screen</t>
   </si>
   <si>
-    <t xml:space="preserve">Advanced Fax</t>
+    <t xml:space="preserve">AgentTemplate3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email, Home, Supervisor, SupervisorAOT, TextChat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATR Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home, HomeAOT, Supervisor, VoiceAOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoTemplate2</t>
   </si>
   <si>
     <t xml:space="preserve">Voice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AgentTemplate3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email, Home, Supervisor, SupervisorAOT, TextChat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATR Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home, HomeAOT, Supervisor, VoiceAOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoTemplate2</t>
   </si>
   <si>
     <t xml:space="preserve">EmailTemplate</t>
@@ -156,7 +153,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -205,39 +202,39 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
@@ -245,23 +242,23 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
@@ -269,15 +266,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
